--- a/Bit City unTechnical Specification 003.xlsx
+++ b/Bit City unTechnical Specification 003.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="240">
   <si>
     <t>Z0</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t xml:space="preserve">Crystal usage </t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1038,12 +1041,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1053,6 +1050,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1380,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1522,19 +1525,19 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="33"/>
       <c r="E5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="34"/>
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1654,7 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>211</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1690,7 +1693,7 @@
       <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>204</v>
       </c>
       <c r="L10" t="s">
@@ -1791,7 +1794,7 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1848,24 +1851,24 @@
       <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Y21" s="34"/>
+      <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -1880,73 +1883,73 @@
       <c r="I22" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30" t="s">
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30" t="s">
+      <c r="M23" s="28"/>
+      <c r="N23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31" t="s">
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30" t="s">
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="32" t="s">
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
@@ -1954,10 +1957,10 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="24" t="s">
         <v>230</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -1995,7 +1998,7 @@
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="24" t="s">
         <v>228</v>
       </c>
       <c r="S31" t="s">
@@ -2016,20 +2019,20 @@
       </c>
     </row>
     <row r="36" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29" t="s">
+      <c r="M36" s="27"/>
+      <c r="N36" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29" t="s">
+      <c r="O36" s="27"/>
+      <c r="P36" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29" t="s">
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2061,7 +2064,7 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -2072,7 +2075,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
       <c r="F5" t="s">
@@ -2083,7 +2086,7 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2091,7 +2094,7 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2099,7 +2102,7 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="28" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2859,7 +2862,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,6 +2887,11 @@
         <v>170</v>
       </c>
     </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>158</v>
